--- a/otmm_decimal/result_colab/result_existing_2000_1.0_6_46_ColabPP/a_a_2000_1.0_6_6.xlsx
+++ b/otmm_decimal/result_colab/result_existing_2000_1.0_6_46_ColabPP/a_a_2000_1.0_6_6.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\確率モデル\glycan\otmm_decimal\result_colab\result_existing_2000_1.0_6_46_ColabPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F17786C6-425A-48E2-8F95-90AB8A04E90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F94EBB1-62DE-4AC4-BAC3-4A5744268304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a_a_2000_1.0_6_6" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -607,11 +617,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,17 +672,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -984,11 +987,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1236,7 +1239,7 @@
         <f t="shared" si="1"/>
         <v>2.0323184711213688E-21</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>0.21703139808022703</v>
       </c>
